--- a/result_fp16/meta-llama/Meta-Llama-3-70B.xlsx
+++ b/result_fp16/meta-llama/Meta-Llama-3-70B.xlsx
@@ -1460,85 +1460,85 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>926374</v>
+        <v>935547</v>
       </c>
       <c r="I10" t="n">
-        <v>0.552693</v>
+        <v>0.547273</v>
       </c>
       <c r="J10" t="n">
-        <v>1131.91</v>
+        <v>1120.82</v>
       </c>
       <c r="K10" t="n">
-        <v>57898.1</v>
+        <v>58471.5</v>
       </c>
       <c r="L10" t="n">
-        <v>58060.2</v>
+        <v>58630.6</v>
       </c>
       <c r="M10" t="n">
-        <v>57684.4</v>
+        <v>58294.1</v>
       </c>
       <c r="N10" t="n">
-        <v>58060.2</v>
+        <v>58630.5</v>
       </c>
       <c r="O10" t="n">
-        <v>58023.9</v>
+        <v>58607.9</v>
       </c>
       <c r="P10" t="n">
-        <v>57901</v>
+        <v>58460.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>508.163</v>
+        <v>533.979</v>
       </c>
       <c r="R10" t="n">
-        <v>572.115</v>
+        <v>676.494</v>
       </c>
       <c r="S10" t="n">
-        <v>104.133</v>
+        <v>114.793</v>
       </c>
       <c r="T10" t="n">
-        <v>572.102</v>
+        <v>676.487</v>
       </c>
       <c r="U10" t="n">
-        <v>539.783</v>
+        <v>565.553</v>
       </c>
       <c r="V10" t="n">
-        <v>531.878</v>
+        <v>543.141</v>
       </c>
       <c r="W10" t="n">
-        <v>28.0361</v>
+        <v>28.3036</v>
       </c>
       <c r="X10" t="n">
-        <v>28.2949</v>
+        <v>28.575</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.9275</v>
+        <v>28.2279</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.2914</v>
+        <v>28.5428</v>
       </c>
       <c r="AA10" t="n">
-        <v>28.0841</v>
+        <v>28.3525</v>
       </c>
       <c r="AB10" t="n">
-        <v>28.0482</v>
+        <v>28.3117</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>92.02569444444444</v>
       </c>
       <c r="AF10" t="n">
         <v>0.0006955505630481</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0027822022521927</v>
+        <v>97.31447927607095</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0019127640483824</v>
+        <v>91.30805528699688</v>
       </c>
     </row>
     <row r="11">

--- a/result_fp16/meta-llama/Meta-Llama-3-70B.xlsx
+++ b/result_fp16/meta-llama/Meta-Llama-3-70B.xlsx
@@ -530,8 +530,8 @@
     <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="34.57642857142857" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>

--- a/result_fp16/meta-llama/Meta-Llama-3-70B.xlsx
+++ b/result_fp16/meta-llama/Meta-Llama-3-70B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,110 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3712360</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.275835</v>
+      </c>
+      <c r="J2" t="n">
+        <v>564.91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29002.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>29032.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>28934.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>29025.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>29020.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>29009.7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>77.401</v>
+      </c>
+      <c r="R2" t="n">
+        <v>95.2076</v>
+      </c>
+      <c r="S2" t="n">
+        <v>47.7616</v>
+      </c>
+      <c r="T2" t="n">
+        <v>94.797</v>
+      </c>
+      <c r="U2" t="n">
+        <v>93.9948</v>
+      </c>
+      <c r="V2" t="n">
+        <v>63.1103</v>
+      </c>
+      <c r="W2" t="n">
+        <v>14.1306</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14.153</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>14.0892</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>14.1495</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.146</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14.1304</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>97.20871845005333</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0006955505630481</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>95.8941650263266</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>94.62826195070886</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result_fp16/meta-llama/Meta-Llama-3-70B.xlsx
+++ b/result_fp16/meta-llama/Meta-Llama-3-70B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,214 @@
         <v>94.62826195070886</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>130</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1918660</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.533706</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1093.03</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29978.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30042</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29801.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30042</v>
+      </c>
+      <c r="O3" t="n">
+        <v>30010.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>29990.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>106.838</v>
+      </c>
+      <c r="R3" t="n">
+        <v>172.36</v>
+      </c>
+      <c r="S3" t="n">
+        <v>50.7711</v>
+      </c>
+      <c r="T3" t="n">
+        <v>172.336</v>
+      </c>
+      <c r="U3" t="n">
+        <v>118.492</v>
+      </c>
+      <c r="V3" t="n">
+        <v>118.249</v>
+      </c>
+      <c r="W3" t="n">
+        <v>14.5931</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14.6407</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14.4994</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14.6363</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14.6251</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>14.5963</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>95.69390161725067</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0006955505630481</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>95.90529383533536</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>93.2630163546626</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>130</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1070160</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.956869</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1959.67</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33442.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33548.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33416.4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33548.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33448.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33442.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>179.046</v>
+      </c>
+      <c r="R4" t="n">
+        <v>352.143</v>
+      </c>
+      <c r="S4" t="n">
+        <v>46.8744</v>
+      </c>
+      <c r="T4" t="n">
+        <v>352.132</v>
+      </c>
+      <c r="U4" t="n">
+        <v>195.999</v>
+      </c>
+      <c r="V4" t="n">
+        <v>195.682</v>
+      </c>
+      <c r="W4" t="n">
+        <v>16.2497</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16.3581</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16.2171</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>16.3099</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>16.3035</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>16.2418</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>94.0352526439483</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0006955505630481</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>95.89972943083096</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>92.21303365555092</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
